--- a/Маркированные и подакцизные товары.xlsx
+++ b/Маркированные и подакцизные товары.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OBSVLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7017F8A8-25A0-4229-BA82-E0408E315D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D156C343-E363-4AEC-B2E6-57491ACC876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t>Товар</t>
   </si>
@@ -224,12 +224,6 @@
   </si>
   <si>
     <t>Магазины одежды и обуви</t>
-  </si>
-  <si>
-    <t>Одежда</t>
-  </si>
-  <si>
-    <t>Перчатки, носки, головные уборы</t>
   </si>
   <si>
     <t>Обеззараживатели воздуха</t>
@@ -339,6 +333,15 @@
   </si>
   <si>
     <t>Консервы *</t>
+  </si>
+  <si>
+    <t>Предметы одежды</t>
+  </si>
+  <si>
+    <t>Постельное белье, кухонное, туалетное</t>
+  </si>
+  <si>
+    <t>Обувь</t>
   </si>
 </sst>
 </file>
@@ -694,48 +697,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -749,8 +710,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,10 +1048,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="142.5" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1060,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1071,7 +1074,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1086,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1095,10 +1098,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1107,10 +1110,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1119,10 +1122,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1134,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="171.75" thickBot="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1145,7 +1148,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="72" thickBot="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1157,10 +1160,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1169,10 +1172,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1184,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" thickBot="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1195,7 +1198,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="86.25" thickBot="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1210,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="157.5" thickBot="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1219,7 +1222,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1234,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="72" thickBot="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1245,7 +1248,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="57.75" thickBot="1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1257,10 +1260,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1272,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1278,19 +1281,19 @@
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="129" thickBot="1">
       <c r="A21" s="2" t="s">
@@ -1307,7 +1310,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1316,25 +1319,25 @@
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1343,7 +1346,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1352,22 +1355,33 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A26" s="15"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="D22:D23"/>
@@ -1375,17 +1389,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1394,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F08E9C-1A2C-4B88-A0A5-82884D7265B8}">
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1418,8 +1421,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1430,7 +1433,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1442,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="26"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="10" t="s">
         <v>57</v>
       </c>
@@ -1448,2058 +1451,2065 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="10" t="s">
+      <c r="C11" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C12" s="32"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="10" t="s">
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="10" t="s">
+      <c r="C14" s="32"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="22"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>98</v>
+      <c r="C16" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="30">
+      <c r="A23" s="29"/>
+      <c r="B23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="24" t="s">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30">
+      <c r="A30" s="29"/>
+      <c r="B30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45.75" thickBot="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="C32" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
-      <c r="A29" s="26"/>
-      <c r="B29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="24" t="s">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" customHeight="1">
+      <c r="A35" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" customHeight="1">
-      <c r="A34" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-    </row>
-    <row r="35" spans="1:3" s="32" customFormat="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" s="32" customFormat="1">
-      <c r="A36" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3" s="18" customFormat="1">
+      <c r="A36" s="17"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" s="32" customFormat="1">
-      <c r="A37" s="31"/>
+    <row r="37" spans="1:3" s="18" customFormat="1">
+      <c r="A37" s="17"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" s="32" customFormat="1">
-      <c r="A38" s="31"/>
+    <row r="38" spans="1:3" s="18" customFormat="1">
+      <c r="A38" s="17"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" s="32" customFormat="1">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:3" s="18" customFormat="1">
+      <c r="A39" s="17"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1">
-      <c r="A40" s="31"/>
+    <row r="40" spans="1:3" s="18" customFormat="1">
+      <c r="A40" s="17"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" s="32" customFormat="1">
-      <c r="A41" s="31"/>
+    <row r="41" spans="1:3" s="18" customFormat="1">
+      <c r="A41" s="17"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" s="32" customFormat="1">
-      <c r="A42" s="31"/>
+    <row r="42" spans="1:3" s="18" customFormat="1">
+      <c r="A42" s="17"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" s="32" customFormat="1">
-      <c r="A43" s="31"/>
+    <row r="43" spans="1:3" s="18" customFormat="1">
+      <c r="A43" s="17"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1">
-      <c r="A44" s="31"/>
+    <row r="44" spans="1:3" s="18" customFormat="1">
+      <c r="A44" s="17"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" s="32" customFormat="1">
-      <c r="A45" s="31"/>
+    <row r="45" spans="1:3" s="18" customFormat="1">
+      <c r="A45" s="17"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" s="32" customFormat="1">
-      <c r="A46" s="31"/>
+    <row r="46" spans="1:3" s="18" customFormat="1">
+      <c r="A46" s="17"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" s="32" customFormat="1">
-      <c r="A47" s="31"/>
+    <row r="47" spans="1:3" s="18" customFormat="1">
+      <c r="A47" s="17"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" s="32" customFormat="1">
-      <c r="A48" s="31"/>
+    <row r="48" spans="1:3" s="18" customFormat="1">
+      <c r="A48" s="17"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" s="32" customFormat="1">
-      <c r="A49" s="31"/>
+    <row r="49" spans="1:3" s="18" customFormat="1">
+      <c r="A49" s="17"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" s="32" customFormat="1">
-      <c r="A50" s="31"/>
+    <row r="50" spans="1:3" s="18" customFormat="1">
+      <c r="A50" s="17"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" s="32" customFormat="1">
-      <c r="A51" s="31"/>
+    <row r="51" spans="1:3" s="18" customFormat="1">
+      <c r="A51" s="17"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3" s="32" customFormat="1">
-      <c r="A52" s="31"/>
+    <row r="52" spans="1:3" s="18" customFormat="1">
+      <c r="A52" s="17"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" s="32" customFormat="1">
-      <c r="A53" s="31"/>
+    <row r="53" spans="1:3" s="18" customFormat="1">
+      <c r="A53" s="17"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" s="32" customFormat="1">
-      <c r="A54" s="31"/>
+    <row r="54" spans="1:3" s="18" customFormat="1">
+      <c r="A54" s="17"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" s="32" customFormat="1">
-      <c r="A55" s="31"/>
+    <row r="55" spans="1:3" s="18" customFormat="1">
+      <c r="A55" s="17"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" s="32" customFormat="1">
-      <c r="A56" s="31"/>
+    <row r="56" spans="1:3" s="18" customFormat="1">
+      <c r="A56" s="17"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" s="32" customFormat="1">
-      <c r="A57" s="31"/>
+    <row r="57" spans="1:3" s="18" customFormat="1">
+      <c r="A57" s="17"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" s="32" customFormat="1">
-      <c r="A58" s="31"/>
+    <row r="58" spans="1:3" s="18" customFormat="1">
+      <c r="A58" s="17"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" s="32" customFormat="1">
-      <c r="A59" s="31"/>
+    <row r="59" spans="1:3" s="18" customFormat="1">
+      <c r="A59" s="17"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3" s="32" customFormat="1">
-      <c r="A60" s="31"/>
+    <row r="60" spans="1:3" s="18" customFormat="1">
+      <c r="A60" s="17"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3" s="32" customFormat="1">
-      <c r="A61" s="31"/>
+    <row r="61" spans="1:3" s="18" customFormat="1">
+      <c r="A61" s="17"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" s="32" customFormat="1">
-      <c r="A62" s="31"/>
+    <row r="62" spans="1:3" s="18" customFormat="1">
+      <c r="A62" s="17"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3" s="32" customFormat="1">
-      <c r="A63" s="31"/>
+    <row r="63" spans="1:3" s="18" customFormat="1">
+      <c r="A63" s="17"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3" s="32" customFormat="1">
-      <c r="A64" s="31"/>
+    <row r="64" spans="1:3" s="18" customFormat="1">
+      <c r="A64" s="17"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3" s="32" customFormat="1">
-      <c r="A65" s="31"/>
+    <row r="65" spans="1:3" s="18" customFormat="1">
+      <c r="A65" s="17"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3" s="32" customFormat="1">
-      <c r="A66" s="31"/>
+    <row r="66" spans="1:3" s="18" customFormat="1">
+      <c r="A66" s="17"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3" s="32" customFormat="1">
-      <c r="A67" s="31"/>
+    <row r="67" spans="1:3" s="18" customFormat="1">
+      <c r="A67" s="17"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:3" s="32" customFormat="1">
-      <c r="A68" s="31"/>
+    <row r="68" spans="1:3" s="18" customFormat="1">
+      <c r="A68" s="17"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="1:3" s="32" customFormat="1">
-      <c r="A69" s="31"/>
+    <row r="69" spans="1:3" s="18" customFormat="1">
+      <c r="A69" s="17"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:3" s="32" customFormat="1">
-      <c r="A70" s="31"/>
+    <row r="70" spans="1:3" s="18" customFormat="1">
+      <c r="A70" s="17"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3" s="32" customFormat="1">
-      <c r="A71" s="31"/>
+    <row r="71" spans="1:3" s="18" customFormat="1">
+      <c r="A71" s="17"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3" s="32" customFormat="1">
-      <c r="A72" s="31"/>
+    <row r="72" spans="1:3" s="18" customFormat="1">
+      <c r="A72" s="17"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" s="32" customFormat="1">
-      <c r="A73" s="31"/>
+    <row r="73" spans="1:3" s="18" customFormat="1">
+      <c r="A73" s="17"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" s="32" customFormat="1">
-      <c r="A74" s="31"/>
+    <row r="74" spans="1:3" s="18" customFormat="1">
+      <c r="A74" s="17"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" s="32" customFormat="1">
-      <c r="A75" s="31"/>
+    <row r="75" spans="1:3" s="18" customFormat="1">
+      <c r="A75" s="17"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" s="32" customFormat="1">
-      <c r="A76" s="31"/>
+    <row r="76" spans="1:3" s="18" customFormat="1">
+      <c r="A76" s="17"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3" s="32" customFormat="1">
-      <c r="A77" s="31"/>
+    <row r="77" spans="1:3" s="18" customFormat="1">
+      <c r="A77" s="17"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" s="32" customFormat="1">
-      <c r="A78" s="31"/>
+    <row r="78" spans="1:3" s="18" customFormat="1">
+      <c r="A78" s="17"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" s="32" customFormat="1">
-      <c r="A79" s="31"/>
+    <row r="79" spans="1:3" s="18" customFormat="1">
+      <c r="A79" s="17"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3" s="32" customFormat="1">
-      <c r="A80" s="31"/>
+    <row r="80" spans="1:3" s="18" customFormat="1">
+      <c r="A80" s="17"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3" s="32" customFormat="1">
-      <c r="A81" s="31"/>
+    <row r="81" spans="1:3" s="18" customFormat="1">
+      <c r="A81" s="17"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" s="32" customFormat="1">
-      <c r="A82" s="31"/>
+    <row r="82" spans="1:3" s="18" customFormat="1">
+      <c r="A82" s="17"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" s="32" customFormat="1">
-      <c r="A83" s="31"/>
+    <row r="83" spans="1:3" s="18" customFormat="1">
+      <c r="A83" s="17"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3" s="32" customFormat="1">
-      <c r="A84" s="31"/>
+    <row r="84" spans="1:3" s="18" customFormat="1">
+      <c r="A84" s="17"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3" s="32" customFormat="1">
-      <c r="A85" s="31"/>
+    <row r="85" spans="1:3" s="18" customFormat="1">
+      <c r="A85" s="17"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3" s="32" customFormat="1">
-      <c r="A86" s="31"/>
+    <row r="86" spans="1:3" s="18" customFormat="1">
+      <c r="A86" s="17"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3" s="32" customFormat="1">
-      <c r="A87" s="31"/>
+    <row r="87" spans="1:3" s="18" customFormat="1">
+      <c r="A87" s="17"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" s="32" customFormat="1">
-      <c r="A88" s="31"/>
+    <row r="88" spans="1:3" s="18" customFormat="1">
+      <c r="A88" s="17"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" s="32" customFormat="1">
-      <c r="A89" s="31"/>
+    <row r="89" spans="1:3" s="18" customFormat="1">
+      <c r="A89" s="17"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3" s="32" customFormat="1">
-      <c r="A90" s="31"/>
+    <row r="90" spans="1:3" s="18" customFormat="1">
+      <c r="A90" s="17"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3" s="32" customFormat="1">
-      <c r="A91" s="31"/>
+    <row r="91" spans="1:3" s="18" customFormat="1">
+      <c r="A91" s="17"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3" s="32" customFormat="1">
-      <c r="A92" s="31"/>
+    <row r="92" spans="1:3" s="18" customFormat="1">
+      <c r="A92" s="17"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3" s="32" customFormat="1">
-      <c r="A93" s="31"/>
+    <row r="93" spans="1:3" s="18" customFormat="1">
+      <c r="A93" s="17"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3" s="32" customFormat="1">
-      <c r="A94" s="31"/>
+    <row r="94" spans="1:3" s="18" customFormat="1">
+      <c r="A94" s="17"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" s="32" customFormat="1">
-      <c r="A95" s="31"/>
+    <row r="95" spans="1:3" s="18" customFormat="1">
+      <c r="A95" s="17"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" s="32" customFormat="1">
-      <c r="A96" s="31"/>
+    <row r="96" spans="1:3" s="18" customFormat="1">
+      <c r="A96" s="17"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" s="32" customFormat="1">
-      <c r="A97" s="31"/>
+    <row r="97" spans="1:3" s="18" customFormat="1">
+      <c r="A97" s="17"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3" s="32" customFormat="1">
-      <c r="A98" s="31"/>
+    <row r="98" spans="1:3" s="18" customFormat="1">
+      <c r="A98" s="17"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" s="32" customFormat="1">
-      <c r="A99" s="31"/>
+    <row r="99" spans="1:3" s="18" customFormat="1">
+      <c r="A99" s="17"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3" s="32" customFormat="1">
-      <c r="A100" s="31"/>
+    <row r="100" spans="1:3" s="18" customFormat="1">
+      <c r="A100" s="17"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" s="32" customFormat="1">
-      <c r="A101" s="31"/>
+    <row r="101" spans="1:3" s="18" customFormat="1">
+      <c r="A101" s="17"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3" s="32" customFormat="1">
-      <c r="A102" s="31"/>
+    <row r="102" spans="1:3" s="18" customFormat="1">
+      <c r="A102" s="17"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" s="32" customFormat="1">
-      <c r="A103" s="31"/>
+    <row r="103" spans="1:3" s="18" customFormat="1">
+      <c r="A103" s="17"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" s="32" customFormat="1">
-      <c r="A104" s="31"/>
+    <row r="104" spans="1:3" s="18" customFormat="1">
+      <c r="A104" s="17"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" s="32" customFormat="1">
-      <c r="A105" s="31"/>
+    <row r="105" spans="1:3" s="18" customFormat="1">
+      <c r="A105" s="17"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" s="32" customFormat="1">
-      <c r="A106" s="31"/>
+    <row r="106" spans="1:3" s="18" customFormat="1">
+      <c r="A106" s="17"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" s="32" customFormat="1">
-      <c r="A107" s="31"/>
+    <row r="107" spans="1:3" s="18" customFormat="1">
+      <c r="A107" s="17"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" s="32" customFormat="1">
-      <c r="A108" s="31"/>
+    <row r="108" spans="1:3" s="18" customFormat="1">
+      <c r="A108" s="17"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" s="32" customFormat="1">
-      <c r="A109" s="31"/>
+    <row r="109" spans="1:3" s="18" customFormat="1">
+      <c r="A109" s="17"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" s="32" customFormat="1">
-      <c r="A110" s="31"/>
+    <row r="110" spans="1:3" s="18" customFormat="1">
+      <c r="A110" s="17"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3" s="32" customFormat="1">
-      <c r="A111" s="31"/>
+    <row r="111" spans="1:3" s="18" customFormat="1">
+      <c r="A111" s="17"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3" s="32" customFormat="1">
-      <c r="A112" s="31"/>
+    <row r="112" spans="1:3" s="18" customFormat="1">
+      <c r="A112" s="17"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3" s="32" customFormat="1">
-      <c r="A113" s="31"/>
+    <row r="113" spans="1:3" s="18" customFormat="1">
+      <c r="A113" s="17"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:3" s="32" customFormat="1">
-      <c r="A114" s="31"/>
+    <row r="114" spans="1:3" s="18" customFormat="1">
+      <c r="A114" s="17"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="1:3" s="32" customFormat="1">
-      <c r="A115" s="31"/>
+    <row r="115" spans="1:3" s="18" customFormat="1">
+      <c r="A115" s="17"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3" s="32" customFormat="1">
-      <c r="A116" s="31"/>
+    <row r="116" spans="1:3" s="18" customFormat="1">
+      <c r="A116" s="17"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3" s="32" customFormat="1">
-      <c r="A117" s="31"/>
+    <row r="117" spans="1:3" s="18" customFormat="1">
+      <c r="A117" s="17"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3" s="32" customFormat="1">
-      <c r="A118" s="31"/>
+    <row r="118" spans="1:3" s="18" customFormat="1">
+      <c r="A118" s="17"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3" s="32" customFormat="1">
-      <c r="A119" s="31"/>
+    <row r="119" spans="1:3" s="18" customFormat="1">
+      <c r="A119" s="17"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3" s="32" customFormat="1">
-      <c r="A120" s="31"/>
+    <row r="120" spans="1:3" s="18" customFormat="1">
+      <c r="A120" s="17"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3" s="32" customFormat="1">
-      <c r="A121" s="31"/>
+    <row r="121" spans="1:3" s="18" customFormat="1">
+      <c r="A121" s="17"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:3" s="32" customFormat="1">
-      <c r="A122" s="31"/>
+    <row r="122" spans="1:3" s="18" customFormat="1">
+      <c r="A122" s="17"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="1:3" s="32" customFormat="1">
-      <c r="A123" s="31"/>
+    <row r="123" spans="1:3" s="18" customFormat="1">
+      <c r="A123" s="17"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="1:3" s="32" customFormat="1">
-      <c r="A124" s="31"/>
+    <row r="124" spans="1:3" s="18" customFormat="1">
+      <c r="A124" s="17"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="1:3" s="32" customFormat="1">
-      <c r="A125" s="31"/>
+    <row r="125" spans="1:3" s="18" customFormat="1">
+      <c r="A125" s="17"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:3" s="32" customFormat="1">
-      <c r="A126" s="31"/>
+    <row r="126" spans="1:3" s="18" customFormat="1">
+      <c r="A126" s="17"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="1:3" s="32" customFormat="1">
-      <c r="A127" s="31"/>
+    <row r="127" spans="1:3" s="18" customFormat="1">
+      <c r="A127" s="17"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" s="32" customFormat="1">
-      <c r="A128" s="31"/>
+    <row r="128" spans="1:3" s="18" customFormat="1">
+      <c r="A128" s="17"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="1:3" s="32" customFormat="1">
-      <c r="A129" s="31"/>
+    <row r="129" spans="1:3" s="18" customFormat="1">
+      <c r="A129" s="17"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="1:3" s="32" customFormat="1">
-      <c r="A130" s="31"/>
+    <row r="130" spans="1:3" s="18" customFormat="1">
+      <c r="A130" s="17"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="1:3" s="32" customFormat="1">
-      <c r="A131" s="31"/>
+    <row r="131" spans="1:3" s="18" customFormat="1">
+      <c r="A131" s="17"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:3" s="32" customFormat="1">
-      <c r="A132" s="31"/>
+    <row r="132" spans="1:3" s="18" customFormat="1">
+      <c r="A132" s="17"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="1:3" s="32" customFormat="1">
-      <c r="A133" s="31"/>
+    <row r="133" spans="1:3" s="18" customFormat="1">
+      <c r="A133" s="17"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="1:3" s="32" customFormat="1">
-      <c r="A134" s="31"/>
+    <row r="134" spans="1:3" s="18" customFormat="1">
+      <c r="A134" s="17"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="1:3" s="32" customFormat="1">
-      <c r="A135" s="31"/>
+    <row r="135" spans="1:3" s="18" customFormat="1">
+      <c r="A135" s="17"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="1:3" s="32" customFormat="1">
-      <c r="A136" s="31"/>
+    <row r="136" spans="1:3" s="18" customFormat="1">
+      <c r="A136" s="17"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:3" s="32" customFormat="1">
-      <c r="A137" s="31"/>
+    <row r="137" spans="1:3" s="18" customFormat="1">
+      <c r="A137" s="17"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="1:3" s="32" customFormat="1">
-      <c r="A138" s="31"/>
+    <row r="138" spans="1:3" s="18" customFormat="1">
+      <c r="A138" s="17"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" s="32" customFormat="1">
-      <c r="A139" s="31"/>
+    <row r="139" spans="1:3" s="18" customFormat="1">
+      <c r="A139" s="17"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="1:3" s="32" customFormat="1">
-      <c r="A140" s="31"/>
+    <row r="140" spans="1:3" s="18" customFormat="1">
+      <c r="A140" s="17"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="1:3" s="32" customFormat="1">
-      <c r="A141" s="31"/>
+    <row r="141" spans="1:3" s="18" customFormat="1">
+      <c r="A141" s="17"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="1:3" s="32" customFormat="1">
-      <c r="A142" s="31"/>
+    <row r="142" spans="1:3" s="18" customFormat="1">
+      <c r="A142" s="17"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="1:3" s="32" customFormat="1">
-      <c r="A143" s="31"/>
+    <row r="143" spans="1:3" s="18" customFormat="1">
+      <c r="A143" s="17"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="1:3" s="32" customFormat="1">
-      <c r="A144" s="31"/>
+    <row r="144" spans="1:3" s="18" customFormat="1">
+      <c r="A144" s="17"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:3" s="32" customFormat="1">
-      <c r="A145" s="31"/>
+    <row r="145" spans="1:3" s="18" customFormat="1">
+      <c r="A145" s="17"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" s="32" customFormat="1">
-      <c r="A146" s="31"/>
+    <row r="146" spans="1:3" s="18" customFormat="1">
+      <c r="A146" s="17"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" s="32" customFormat="1">
-      <c r="A147" s="31"/>
+    <row r="147" spans="1:3" s="18" customFormat="1">
+      <c r="A147" s="17"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="1:3" s="32" customFormat="1">
-      <c r="A148" s="31"/>
+    <row r="148" spans="1:3" s="18" customFormat="1">
+      <c r="A148" s="17"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="1:3" s="32" customFormat="1">
-      <c r="A149" s="31"/>
+    <row r="149" spans="1:3" s="18" customFormat="1">
+      <c r="A149" s="17"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:3" s="32" customFormat="1">
-      <c r="A150" s="31"/>
+    <row r="150" spans="1:3" s="18" customFormat="1">
+      <c r="A150" s="17"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="1:3" s="32" customFormat="1">
-      <c r="A151" s="31"/>
+    <row r="151" spans="1:3" s="18" customFormat="1">
+      <c r="A151" s="17"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:3" s="32" customFormat="1">
-      <c r="A152" s="31"/>
+    <row r="152" spans="1:3" s="18" customFormat="1">
+      <c r="A152" s="17"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:3" s="32" customFormat="1">
-      <c r="A153" s="31"/>
+    <row r="153" spans="1:3" s="18" customFormat="1">
+      <c r="A153" s="17"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="1:3" s="32" customFormat="1">
-      <c r="A154" s="31"/>
+    <row r="154" spans="1:3" s="18" customFormat="1">
+      <c r="A154" s="17"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="1:3" s="32" customFormat="1">
-      <c r="A155" s="31"/>
+    <row r="155" spans="1:3" s="18" customFormat="1">
+      <c r="A155" s="17"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="1:3" s="32" customFormat="1">
-      <c r="A156" s="31"/>
+    <row r="156" spans="1:3" s="18" customFormat="1">
+      <c r="A156" s="17"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="1:3" s="32" customFormat="1">
-      <c r="A157" s="31"/>
+    <row r="157" spans="1:3" s="18" customFormat="1">
+      <c r="A157" s="17"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="1:3" s="32" customFormat="1">
-      <c r="A158" s="31"/>
+    <row r="158" spans="1:3" s="18" customFormat="1">
+      <c r="A158" s="17"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="1:3" s="32" customFormat="1">
-      <c r="A159" s="31"/>
+    <row r="159" spans="1:3" s="18" customFormat="1">
+      <c r="A159" s="17"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="1:3" s="32" customFormat="1">
-      <c r="A160" s="31"/>
+    <row r="160" spans="1:3" s="18" customFormat="1">
+      <c r="A160" s="17"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="1:3" s="32" customFormat="1">
-      <c r="A161" s="31"/>
+    <row r="161" spans="1:3" s="18" customFormat="1">
+      <c r="A161" s="17"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="1:3" s="32" customFormat="1">
-      <c r="A162" s="31"/>
+    <row r="162" spans="1:3" s="18" customFormat="1">
+      <c r="A162" s="17"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="1:3" s="32" customFormat="1">
-      <c r="A163" s="31"/>
+    <row r="163" spans="1:3" s="18" customFormat="1">
+      <c r="A163" s="17"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="1:3" s="32" customFormat="1">
-      <c r="A164" s="31"/>
+    <row r="164" spans="1:3" s="18" customFormat="1">
+      <c r="A164" s="17"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="1:3" s="32" customFormat="1">
-      <c r="A165" s="31"/>
+    <row r="165" spans="1:3" s="18" customFormat="1">
+      <c r="A165" s="17"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="1:3" s="32" customFormat="1">
-      <c r="A166" s="31"/>
+    <row r="166" spans="1:3" s="18" customFormat="1">
+      <c r="A166" s="17"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="1:3" s="32" customFormat="1">
-      <c r="A167" s="31"/>
+    <row r="167" spans="1:3" s="18" customFormat="1">
+      <c r="A167" s="17"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="1:3" s="32" customFormat="1">
-      <c r="A168" s="31"/>
+    <row r="168" spans="1:3" s="18" customFormat="1">
+      <c r="A168" s="17"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="1:3" s="32" customFormat="1">
-      <c r="A169" s="31"/>
+    <row r="169" spans="1:3" s="18" customFormat="1">
+      <c r="A169" s="17"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="1:3" s="32" customFormat="1">
-      <c r="A170" s="31"/>
+    <row r="170" spans="1:3" s="18" customFormat="1">
+      <c r="A170" s="17"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="1:3" s="32" customFormat="1">
-      <c r="A171" s="31"/>
+    <row r="171" spans="1:3" s="18" customFormat="1">
+      <c r="A171" s="17"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="1:3" s="32" customFormat="1">
-      <c r="A172" s="31"/>
+    <row r="172" spans="1:3" s="18" customFormat="1">
+      <c r="A172" s="17"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="1:3" s="32" customFormat="1">
-      <c r="A173" s="31"/>
+    <row r="173" spans="1:3" s="18" customFormat="1">
+      <c r="A173" s="17"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="1:3" s="32" customFormat="1">
-      <c r="A174" s="31"/>
+    <row r="174" spans="1:3" s="18" customFormat="1">
+      <c r="A174" s="17"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="1:3" s="32" customFormat="1">
-      <c r="A175" s="31"/>
+    <row r="175" spans="1:3" s="18" customFormat="1">
+      <c r="A175" s="17"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:3" s="32" customFormat="1">
-      <c r="A176" s="31"/>
+    <row r="176" spans="1:3" s="18" customFormat="1">
+      <c r="A176" s="17"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" s="32" customFormat="1">
-      <c r="A177" s="31"/>
+    <row r="177" spans="1:3" s="18" customFormat="1">
+      <c r="A177" s="17"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="1:3" s="32" customFormat="1">
-      <c r="A178" s="31"/>
+    <row r="178" spans="1:3" s="18" customFormat="1">
+      <c r="A178" s="17"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="1:3" s="32" customFormat="1">
-      <c r="A179" s="31"/>
+    <row r="179" spans="1:3" s="18" customFormat="1">
+      <c r="A179" s="17"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="1:3" s="32" customFormat="1">
-      <c r="A180" s="31"/>
+    <row r="180" spans="1:3" s="18" customFormat="1">
+      <c r="A180" s="17"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="1:3" s="32" customFormat="1">
-      <c r="A181" s="31"/>
+    <row r="181" spans="1:3" s="18" customFormat="1">
+      <c r="A181" s="17"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="1:3" s="32" customFormat="1">
-      <c r="A182" s="31"/>
+    <row r="182" spans="1:3" s="18" customFormat="1">
+      <c r="A182" s="17"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:3" s="32" customFormat="1">
-      <c r="A183" s="31"/>
+    <row r="183" spans="1:3" s="18" customFormat="1">
+      <c r="A183" s="17"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:3" s="32" customFormat="1">
-      <c r="A184" s="31"/>
+    <row r="184" spans="1:3" s="18" customFormat="1">
+      <c r="A184" s="17"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="1:3" s="32" customFormat="1">
-      <c r="A185" s="31"/>
+    <row r="185" spans="1:3" s="18" customFormat="1">
+      <c r="A185" s="17"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="1:3" s="32" customFormat="1">
-      <c r="A186" s="31"/>
+    <row r="186" spans="1:3" s="18" customFormat="1">
+      <c r="A186" s="17"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="1:3" s="32" customFormat="1">
-      <c r="A187" s="31"/>
+    <row r="187" spans="1:3" s="18" customFormat="1">
+      <c r="A187" s="17"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:3" s="32" customFormat="1">
-      <c r="A188" s="31"/>
+    <row r="188" spans="1:3" s="18" customFormat="1">
+      <c r="A188" s="17"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="1:3" s="32" customFormat="1">
-      <c r="A189" s="31"/>
+    <row r="189" spans="1:3" s="18" customFormat="1">
+      <c r="A189" s="17"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="1:3" s="32" customFormat="1">
-      <c r="A190" s="31"/>
+    <row r="190" spans="1:3" s="18" customFormat="1">
+      <c r="A190" s="17"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="1:3" s="32" customFormat="1">
-      <c r="A191" s="31"/>
+    <row r="191" spans="1:3" s="18" customFormat="1">
+      <c r="A191" s="17"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="1:3" s="32" customFormat="1">
-      <c r="A192" s="31"/>
+    <row r="192" spans="1:3" s="18" customFormat="1">
+      <c r="A192" s="17"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="1:3" s="32" customFormat="1">
-      <c r="A193" s="31"/>
+    <row r="193" spans="1:3" s="18" customFormat="1">
+      <c r="A193" s="17"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="1:3" s="32" customFormat="1">
-      <c r="A194" s="31"/>
+    <row r="194" spans="1:3" s="18" customFormat="1">
+      <c r="A194" s="17"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="1:3" s="32" customFormat="1">
-      <c r="A195" s="31"/>
+    <row r="195" spans="1:3" s="18" customFormat="1">
+      <c r="A195" s="17"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="1:3" s="32" customFormat="1">
-      <c r="A196" s="31"/>
+    <row r="196" spans="1:3" s="18" customFormat="1">
+      <c r="A196" s="17"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="1:3" s="32" customFormat="1">
-      <c r="A197" s="31"/>
+    <row r="197" spans="1:3" s="18" customFormat="1">
+      <c r="A197" s="17"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="1:3" s="32" customFormat="1">
-      <c r="A198" s="31"/>
+    <row r="198" spans="1:3" s="18" customFormat="1">
+      <c r="A198" s="17"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="1:3" s="32" customFormat="1">
-      <c r="A199" s="31"/>
+    <row r="199" spans="1:3" s="18" customFormat="1">
+      <c r="A199" s="17"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="1:3" s="32" customFormat="1">
-      <c r="A200" s="31"/>
+    <row r="200" spans="1:3" s="18" customFormat="1">
+      <c r="A200" s="17"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="1:3" s="32" customFormat="1">
-      <c r="A201" s="31"/>
+    <row r="201" spans="1:3" s="18" customFormat="1">
+      <c r="A201" s="17"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="1:3" s="32" customFormat="1">
-      <c r="A202" s="31"/>
+    <row r="202" spans="1:3" s="18" customFormat="1">
+      <c r="A202" s="17"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
     </row>
-    <row r="203" spans="1:3" s="32" customFormat="1">
-      <c r="A203" s="31"/>
+    <row r="203" spans="1:3" s="18" customFormat="1">
+      <c r="A203" s="17"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
     </row>
-    <row r="204" spans="1:3" s="32" customFormat="1">
-      <c r="A204" s="31"/>
+    <row r="204" spans="1:3" s="18" customFormat="1">
+      <c r="A204" s="17"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
     </row>
-    <row r="205" spans="1:3" s="32" customFormat="1">
-      <c r="A205" s="31"/>
+    <row r="205" spans="1:3" s="18" customFormat="1">
+      <c r="A205" s="17"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
     </row>
-    <row r="206" spans="1:3" s="32" customFormat="1">
-      <c r="A206" s="31"/>
+    <row r="206" spans="1:3" s="18" customFormat="1">
+      <c r="A206" s="17"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
     </row>
-    <row r="207" spans="1:3" s="32" customFormat="1">
-      <c r="A207" s="31"/>
+    <row r="207" spans="1:3" s="18" customFormat="1">
+      <c r="A207" s="17"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
     </row>
-    <row r="208" spans="1:3" s="32" customFormat="1">
-      <c r="A208" s="31"/>
+    <row r="208" spans="1:3" s="18" customFormat="1">
+      <c r="A208" s="17"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
     </row>
-    <row r="209" spans="1:3" s="32" customFormat="1">
-      <c r="A209" s="31"/>
+    <row r="209" spans="1:3" s="18" customFormat="1">
+      <c r="A209" s="17"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
     </row>
-    <row r="210" spans="1:3" s="32" customFormat="1">
-      <c r="A210" s="31"/>
+    <row r="210" spans="1:3" s="18" customFormat="1">
+      <c r="A210" s="17"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
     </row>
-    <row r="211" spans="1:3" s="32" customFormat="1">
-      <c r="A211" s="31"/>
+    <row r="211" spans="1:3" s="18" customFormat="1">
+      <c r="A211" s="17"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
     </row>
-    <row r="212" spans="1:3" s="32" customFormat="1">
-      <c r="A212" s="31"/>
+    <row r="212" spans="1:3" s="18" customFormat="1">
+      <c r="A212" s="17"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" s="32" customFormat="1">
-      <c r="A213" s="31"/>
+    <row r="213" spans="1:3" s="18" customFormat="1">
+      <c r="A213" s="17"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" s="32" customFormat="1">
-      <c r="A214" s="31"/>
+    <row r="214" spans="1:3" s="18" customFormat="1">
+      <c r="A214" s="17"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
     </row>
-    <row r="215" spans="1:3" s="32" customFormat="1">
-      <c r="A215" s="31"/>
+    <row r="215" spans="1:3" s="18" customFormat="1">
+      <c r="A215" s="17"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="1:3" s="32" customFormat="1">
-      <c r="A216" s="31"/>
+    <row r="216" spans="1:3" s="18" customFormat="1">
+      <c r="A216" s="17"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
     </row>
-    <row r="217" spans="1:3" s="32" customFormat="1">
-      <c r="A217" s="31"/>
+    <row r="217" spans="1:3" s="18" customFormat="1">
+      <c r="A217" s="17"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
     </row>
-    <row r="218" spans="1:3" s="32" customFormat="1">
-      <c r="A218" s="31"/>
+    <row r="218" spans="1:3" s="18" customFormat="1">
+      <c r="A218" s="17"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
     </row>
-    <row r="219" spans="1:3" s="32" customFormat="1">
-      <c r="A219" s="31"/>
+    <row r="219" spans="1:3" s="18" customFormat="1">
+      <c r="A219" s="17"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
     </row>
-    <row r="220" spans="1:3" s="32" customFormat="1">
-      <c r="A220" s="31"/>
+    <row r="220" spans="1:3" s="18" customFormat="1">
+      <c r="A220" s="17"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
     </row>
-    <row r="221" spans="1:3" s="32" customFormat="1">
-      <c r="A221" s="31"/>
+    <row r="221" spans="1:3" s="18" customFormat="1">
+      <c r="A221" s="17"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="1:3" s="32" customFormat="1">
-      <c r="A222" s="31"/>
+    <row r="222" spans="1:3" s="18" customFormat="1">
+      <c r="A222" s="17"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
     </row>
-    <row r="223" spans="1:3" s="32" customFormat="1">
-      <c r="A223" s="31"/>
+    <row r="223" spans="1:3" s="18" customFormat="1">
+      <c r="A223" s="17"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="1:3" s="32" customFormat="1">
-      <c r="A224" s="31"/>
+    <row r="224" spans="1:3" s="18" customFormat="1">
+      <c r="A224" s="17"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
     </row>
-    <row r="225" spans="1:3" s="32" customFormat="1">
-      <c r="A225" s="31"/>
+    <row r="225" spans="1:3" s="18" customFormat="1">
+      <c r="A225" s="17"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
     </row>
-    <row r="226" spans="1:3" s="32" customFormat="1">
-      <c r="A226" s="31"/>
+    <row r="226" spans="1:3" s="18" customFormat="1">
+      <c r="A226" s="17"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
     </row>
-    <row r="227" spans="1:3" s="32" customFormat="1">
-      <c r="A227" s="31"/>
+    <row r="227" spans="1:3" s="18" customFormat="1">
+      <c r="A227" s="17"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
     </row>
-    <row r="228" spans="1:3" s="32" customFormat="1">
-      <c r="A228" s="31"/>
+    <row r="228" spans="1:3" s="18" customFormat="1">
+      <c r="A228" s="17"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
     </row>
-    <row r="229" spans="1:3" s="32" customFormat="1">
-      <c r="A229" s="31"/>
+    <row r="229" spans="1:3" s="18" customFormat="1">
+      <c r="A229" s="17"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
     </row>
-    <row r="230" spans="1:3" s="32" customFormat="1">
-      <c r="A230" s="31"/>
+    <row r="230" spans="1:3" s="18" customFormat="1">
+      <c r="A230" s="17"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
     </row>
-    <row r="231" spans="1:3" s="32" customFormat="1">
-      <c r="A231" s="31"/>
+    <row r="231" spans="1:3" s="18" customFormat="1">
+      <c r="A231" s="17"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
     </row>
-    <row r="232" spans="1:3" s="32" customFormat="1">
-      <c r="A232" s="31"/>
+    <row r="232" spans="1:3" s="18" customFormat="1">
+      <c r="A232" s="17"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
     </row>
-    <row r="233" spans="1:3" s="32" customFormat="1">
-      <c r="A233" s="31"/>
+    <row r="233" spans="1:3" s="18" customFormat="1">
+      <c r="A233" s="17"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
     </row>
-    <row r="234" spans="1:3" s="32" customFormat="1">
-      <c r="A234" s="31"/>
+    <row r="234" spans="1:3" s="18" customFormat="1">
+      <c r="A234" s="17"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
     </row>
-    <row r="235" spans="1:3" s="32" customFormat="1">
-      <c r="A235" s="31"/>
+    <row r="235" spans="1:3" s="18" customFormat="1">
+      <c r="A235" s="17"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
     </row>
-    <row r="236" spans="1:3" s="32" customFormat="1">
-      <c r="A236" s="31"/>
+    <row r="236" spans="1:3" s="18" customFormat="1">
+      <c r="A236" s="17"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" s="32" customFormat="1">
-      <c r="A237" s="31"/>
+    <row r="237" spans="1:3" s="18" customFormat="1">
+      <c r="A237" s="17"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" s="32" customFormat="1">
-      <c r="A238" s="31"/>
+    <row r="238" spans="1:3" s="18" customFormat="1">
+      <c r="A238" s="17"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
     </row>
-    <row r="239" spans="1:3" s="32" customFormat="1">
-      <c r="A239" s="31"/>
+    <row r="239" spans="1:3" s="18" customFormat="1">
+      <c r="A239" s="17"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
     </row>
-    <row r="240" spans="1:3" s="32" customFormat="1">
-      <c r="A240" s="31"/>
+    <row r="240" spans="1:3" s="18" customFormat="1">
+      <c r="A240" s="17"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
     </row>
-    <row r="241" spans="1:3" s="32" customFormat="1">
-      <c r="A241" s="31"/>
+    <row r="241" spans="1:3" s="18" customFormat="1">
+      <c r="A241" s="17"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
     </row>
-    <row r="242" spans="1:3" s="32" customFormat="1">
-      <c r="A242" s="31"/>
+    <row r="242" spans="1:3" s="18" customFormat="1">
+      <c r="A242" s="17"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
     </row>
-    <row r="243" spans="1:3" s="32" customFormat="1">
-      <c r="A243" s="31"/>
+    <row r="243" spans="1:3" s="18" customFormat="1">
+      <c r="A243" s="17"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
     </row>
-    <row r="244" spans="1:3" s="32" customFormat="1">
-      <c r="A244" s="31"/>
+    <row r="244" spans="1:3" s="18" customFormat="1">
+      <c r="A244" s="17"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
     </row>
-    <row r="245" spans="1:3" s="32" customFormat="1">
-      <c r="A245" s="31"/>
+    <row r="245" spans="1:3" s="18" customFormat="1">
+      <c r="A245" s="17"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
     </row>
-    <row r="246" spans="1:3" s="32" customFormat="1">
-      <c r="A246" s="31"/>
+    <row r="246" spans="1:3" s="18" customFormat="1">
+      <c r="A246" s="17"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
     </row>
-    <row r="247" spans="1:3" s="32" customFormat="1">
-      <c r="A247" s="31"/>
+    <row r="247" spans="1:3" s="18" customFormat="1">
+      <c r="A247" s="17"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
     </row>
-    <row r="248" spans="1:3" s="32" customFormat="1">
-      <c r="A248" s="31"/>
+    <row r="248" spans="1:3" s="18" customFormat="1">
+      <c r="A248" s="17"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
     </row>
-    <row r="249" spans="1:3" s="32" customFormat="1">
-      <c r="A249" s="31"/>
+    <row r="249" spans="1:3" s="18" customFormat="1">
+      <c r="A249" s="17"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="1:3" s="32" customFormat="1">
-      <c r="A250" s="31"/>
+    <row r="250" spans="1:3" s="18" customFormat="1">
+      <c r="A250" s="17"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="1:3" s="32" customFormat="1">
-      <c r="A251" s="31"/>
+    <row r="251" spans="1:3" s="18" customFormat="1">
+      <c r="A251" s="17"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="1:3" s="32" customFormat="1">
-      <c r="A252" s="31"/>
+    <row r="252" spans="1:3" s="18" customFormat="1">
+      <c r="A252" s="17"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="1:3" s="32" customFormat="1">
-      <c r="A253" s="31"/>
+    <row r="253" spans="1:3" s="18" customFormat="1">
+      <c r="A253" s="17"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="1:3" s="32" customFormat="1">
-      <c r="A254" s="31"/>
+    <row r="254" spans="1:3" s="18" customFormat="1">
+      <c r="A254" s="17"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="1:3" s="32" customFormat="1">
-      <c r="A255" s="31"/>
+    <row r="255" spans="1:3" s="18" customFormat="1">
+      <c r="A255" s="17"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="1:3" s="32" customFormat="1">
-      <c r="A256" s="31"/>
+    <row r="256" spans="1:3" s="18" customFormat="1">
+      <c r="A256" s="17"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
     </row>
-    <row r="257" spans="1:3" s="32" customFormat="1">
-      <c r="A257" s="31"/>
+    <row r="257" spans="1:3" s="18" customFormat="1">
+      <c r="A257" s="17"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
     </row>
-    <row r="258" spans="1:3" s="32" customFormat="1">
-      <c r="A258" s="31"/>
+    <row r="258" spans="1:3" s="18" customFormat="1">
+      <c r="A258" s="17"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
     </row>
-    <row r="259" spans="1:3" s="32" customFormat="1">
-      <c r="A259" s="31"/>
+    <row r="259" spans="1:3" s="18" customFormat="1">
+      <c r="A259" s="17"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
     </row>
-    <row r="260" spans="1:3" s="32" customFormat="1">
-      <c r="A260" s="31"/>
+    <row r="260" spans="1:3" s="18" customFormat="1">
+      <c r="A260" s="17"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
     </row>
-    <row r="261" spans="1:3" s="32" customFormat="1">
-      <c r="A261" s="31"/>
+    <row r="261" spans="1:3" s="18" customFormat="1">
+      <c r="A261" s="17"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
     </row>
-    <row r="262" spans="1:3" s="32" customFormat="1">
-      <c r="A262" s="31"/>
+    <row r="262" spans="1:3" s="18" customFormat="1">
+      <c r="A262" s="17"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
     </row>
-    <row r="263" spans="1:3" s="32" customFormat="1">
-      <c r="A263" s="31"/>
+    <row r="263" spans="1:3" s="18" customFormat="1">
+      <c r="A263" s="17"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
     </row>
-    <row r="264" spans="1:3" s="32" customFormat="1">
-      <c r="A264" s="31"/>
+    <row r="264" spans="1:3" s="18" customFormat="1">
+      <c r="A264" s="17"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
     </row>
-    <row r="265" spans="1:3" s="32" customFormat="1">
-      <c r="A265" s="31"/>
+    <row r="265" spans="1:3" s="18" customFormat="1">
+      <c r="A265" s="17"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
     </row>
-    <row r="266" spans="1:3" s="32" customFormat="1">
-      <c r="A266" s="31"/>
+    <row r="266" spans="1:3" s="18" customFormat="1">
+      <c r="A266" s="17"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
     </row>
-    <row r="267" spans="1:3" s="32" customFormat="1">
-      <c r="A267" s="31"/>
+    <row r="267" spans="1:3" s="18" customFormat="1">
+      <c r="A267" s="17"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
     </row>
-    <row r="268" spans="1:3" s="32" customFormat="1">
-      <c r="A268" s="31"/>
+    <row r="268" spans="1:3" s="18" customFormat="1">
+      <c r="A268" s="17"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="1:3" s="32" customFormat="1">
-      <c r="A269" s="31"/>
+    <row r="269" spans="1:3" s="18" customFormat="1">
+      <c r="A269" s="17"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
     </row>
-    <row r="270" spans="1:3" s="32" customFormat="1">
-      <c r="A270" s="31"/>
+    <row r="270" spans="1:3" s="18" customFormat="1">
+      <c r="A270" s="17"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="1:3" s="32" customFormat="1">
-      <c r="A271" s="31"/>
+    <row r="271" spans="1:3" s="18" customFormat="1">
+      <c r="A271" s="17"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
     </row>
-    <row r="272" spans="1:3" s="32" customFormat="1">
-      <c r="A272" s="31"/>
+    <row r="272" spans="1:3" s="18" customFormat="1">
+      <c r="A272" s="17"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
     </row>
-    <row r="273" spans="1:3" s="32" customFormat="1">
-      <c r="A273" s="31"/>
+    <row r="273" spans="1:3" s="18" customFormat="1">
+      <c r="A273" s="17"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" s="32" customFormat="1">
-      <c r="A274" s="31"/>
+    <row r="274" spans="1:3" s="18" customFormat="1">
+      <c r="A274" s="17"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" s="32" customFormat="1">
-      <c r="A275" s="31"/>
+    <row r="275" spans="1:3" s="18" customFormat="1">
+      <c r="A275" s="17"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
     </row>
-    <row r="276" spans="1:3" s="32" customFormat="1">
-      <c r="A276" s="31"/>
+    <row r="276" spans="1:3" s="18" customFormat="1">
+      <c r="A276" s="17"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="1:3" s="32" customFormat="1">
-      <c r="A277" s="31"/>
+    <row r="277" spans="1:3" s="18" customFormat="1">
+      <c r="A277" s="17"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
     </row>
-    <row r="278" spans="1:3" s="32" customFormat="1">
-      <c r="A278" s="31"/>
+    <row r="278" spans="1:3" s="18" customFormat="1">
+      <c r="A278" s="17"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
     </row>
-    <row r="279" spans="1:3" s="32" customFormat="1">
-      <c r="A279" s="31"/>
+    <row r="279" spans="1:3" s="18" customFormat="1">
+      <c r="A279" s="17"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
     </row>
-    <row r="280" spans="1:3" s="32" customFormat="1">
-      <c r="A280" s="31"/>
+    <row r="280" spans="1:3" s="18" customFormat="1">
+      <c r="A280" s="17"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
     </row>
-    <row r="281" spans="1:3" s="32" customFormat="1">
-      <c r="A281" s="31"/>
+    <row r="281" spans="1:3" s="18" customFormat="1">
+      <c r="A281" s="17"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
     </row>
-    <row r="282" spans="1:3" s="32" customFormat="1">
-      <c r="A282" s="31"/>
+    <row r="282" spans="1:3" s="18" customFormat="1">
+      <c r="A282" s="17"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
     </row>
-    <row r="283" spans="1:3" s="32" customFormat="1">
-      <c r="A283" s="31"/>
+    <row r="283" spans="1:3" s="18" customFormat="1">
+      <c r="A283" s="17"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
     </row>
-    <row r="284" spans="1:3" s="32" customFormat="1">
-      <c r="A284" s="31"/>
+    <row r="284" spans="1:3" s="18" customFormat="1">
+      <c r="A284" s="17"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
     </row>
-    <row r="285" spans="1:3" s="32" customFormat="1">
-      <c r="A285" s="31"/>
+    <row r="285" spans="1:3" s="18" customFormat="1">
+      <c r="A285" s="17"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
     </row>
-    <row r="286" spans="1:3" s="32" customFormat="1">
-      <c r="A286" s="31"/>
+    <row r="286" spans="1:3" s="18" customFormat="1">
+      <c r="A286" s="17"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
     </row>
-    <row r="287" spans="1:3" s="32" customFormat="1">
-      <c r="A287" s="31"/>
+    <row r="287" spans="1:3" s="18" customFormat="1">
+      <c r="A287" s="17"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
     </row>
-    <row r="288" spans="1:3" s="32" customFormat="1">
-      <c r="A288" s="31"/>
+    <row r="288" spans="1:3" s="18" customFormat="1">
+      <c r="A288" s="17"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
     </row>
-    <row r="289" spans="1:3" s="32" customFormat="1">
-      <c r="A289" s="31"/>
+    <row r="289" spans="1:3" s="18" customFormat="1">
+      <c r="A289" s="17"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
     </row>
-    <row r="290" spans="1:3" s="32" customFormat="1">
-      <c r="A290" s="31"/>
+    <row r="290" spans="1:3" s="18" customFormat="1">
+      <c r="A290" s="17"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
     </row>
-    <row r="291" spans="1:3" s="32" customFormat="1">
-      <c r="A291" s="31"/>
+    <row r="291" spans="1:3" s="18" customFormat="1">
+      <c r="A291" s="17"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
     </row>
-    <row r="292" spans="1:3" s="32" customFormat="1">
-      <c r="A292" s="31"/>
+    <row r="292" spans="1:3" s="18" customFormat="1">
+      <c r="A292" s="17"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
     </row>
-    <row r="293" spans="1:3" s="32" customFormat="1">
-      <c r="A293" s="31"/>
+    <row r="293" spans="1:3" s="18" customFormat="1">
+      <c r="A293" s="17"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
     </row>
-    <row r="294" spans="1:3" s="32" customFormat="1">
-      <c r="A294" s="31"/>
+    <row r="294" spans="1:3" s="18" customFormat="1">
+      <c r="A294" s="17"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" s="32" customFormat="1">
-      <c r="A295" s="31"/>
+    <row r="295" spans="1:3" s="18" customFormat="1">
+      <c r="A295" s="17"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" s="32" customFormat="1">
-      <c r="A296" s="31"/>
+    <row r="296" spans="1:3" s="18" customFormat="1">
+      <c r="A296" s="17"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
     </row>
-    <row r="297" spans="1:3" s="32" customFormat="1">
-      <c r="A297" s="31"/>
+    <row r="297" spans="1:3" s="18" customFormat="1">
+      <c r="A297" s="17"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
     </row>
-    <row r="298" spans="1:3" s="32" customFormat="1">
-      <c r="A298" s="31"/>
+    <row r="298" spans="1:3" s="18" customFormat="1">
+      <c r="A298" s="17"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
     </row>
-    <row r="299" spans="1:3" s="32" customFormat="1">
-      <c r="A299" s="31"/>
+    <row r="299" spans="1:3" s="18" customFormat="1">
+      <c r="A299" s="17"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
     </row>
-    <row r="300" spans="1:3" s="32" customFormat="1">
-      <c r="A300" s="31"/>
+    <row r="300" spans="1:3" s="18" customFormat="1">
+      <c r="A300" s="17"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
     </row>
-    <row r="301" spans="1:3" s="32" customFormat="1">
-      <c r="A301" s="31"/>
+    <row r="301" spans="1:3" s="18" customFormat="1">
+      <c r="A301" s="17"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
     </row>
-    <row r="302" spans="1:3" s="32" customFormat="1">
-      <c r="A302" s="31"/>
+    <row r="302" spans="1:3" s="18" customFormat="1">
+      <c r="A302" s="17"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
     </row>
-    <row r="303" spans="1:3" s="32" customFormat="1">
-      <c r="A303" s="31"/>
+    <row r="303" spans="1:3" s="18" customFormat="1">
+      <c r="A303" s="17"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
     </row>
-    <row r="304" spans="1:3" s="32" customFormat="1">
-      <c r="A304" s="31"/>
+    <row r="304" spans="1:3" s="18" customFormat="1">
+      <c r="A304" s="17"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
     </row>
-    <row r="305" spans="1:3" s="32" customFormat="1">
-      <c r="A305" s="31"/>
+    <row r="305" spans="1:3" s="18" customFormat="1">
+      <c r="A305" s="17"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
     </row>
-    <row r="306" spans="1:3" s="32" customFormat="1">
-      <c r="A306" s="31"/>
+    <row r="306" spans="1:3" s="18" customFormat="1">
+      <c r="A306" s="17"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
     </row>
-    <row r="307" spans="1:3" s="32" customFormat="1">
-      <c r="A307" s="31"/>
+    <row r="307" spans="1:3" s="18" customFormat="1">
+      <c r="A307" s="17"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="1:3" s="32" customFormat="1">
-      <c r="A308" s="31"/>
+    <row r="308" spans="1:3" s="18" customFormat="1">
+      <c r="A308" s="17"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
     </row>
-    <row r="309" spans="1:3" s="32" customFormat="1">
-      <c r="A309" s="31"/>
+    <row r="309" spans="1:3" s="18" customFormat="1">
+      <c r="A309" s="17"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
     </row>
-    <row r="310" spans="1:3" s="32" customFormat="1">
-      <c r="A310" s="31"/>
+    <row r="310" spans="1:3" s="18" customFormat="1">
+      <c r="A310" s="17"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
     </row>
-    <row r="311" spans="1:3" s="32" customFormat="1">
-      <c r="A311" s="31"/>
+    <row r="311" spans="1:3" s="18" customFormat="1">
+      <c r="A311" s="17"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
     </row>
-    <row r="312" spans="1:3" s="32" customFormat="1">
-      <c r="A312" s="31"/>
+    <row r="312" spans="1:3" s="18" customFormat="1">
+      <c r="A312" s="17"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
     </row>
-    <row r="313" spans="1:3" s="32" customFormat="1">
-      <c r="A313" s="31"/>
+    <row r="313" spans="1:3" s="18" customFormat="1">
+      <c r="A313" s="17"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
     </row>
-    <row r="314" spans="1:3" s="32" customFormat="1">
-      <c r="A314" s="31"/>
+    <row r="314" spans="1:3" s="18" customFormat="1">
+      <c r="A314" s="17"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
     </row>
-    <row r="315" spans="1:3" s="32" customFormat="1">
-      <c r="A315" s="31"/>
+    <row r="315" spans="1:3" s="18" customFormat="1">
+      <c r="A315" s="17"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
     </row>
-    <row r="316" spans="1:3" s="32" customFormat="1">
-      <c r="A316" s="31"/>
+    <row r="316" spans="1:3" s="18" customFormat="1">
+      <c r="A316" s="17"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
     </row>
-    <row r="317" spans="1:3" s="32" customFormat="1">
-      <c r="A317" s="31"/>
+    <row r="317" spans="1:3" s="18" customFormat="1">
+      <c r="A317" s="17"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
     </row>
-    <row r="318" spans="1:3" s="32" customFormat="1">
-      <c r="A318" s="31"/>
+    <row r="318" spans="1:3" s="18" customFormat="1">
+      <c r="A318" s="17"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
     </row>
-    <row r="319" spans="1:3" s="32" customFormat="1">
-      <c r="A319" s="31"/>
+    <row r="319" spans="1:3" s="18" customFormat="1">
+      <c r="A319" s="17"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
     </row>
-    <row r="320" spans="1:3" s="32" customFormat="1">
-      <c r="A320" s="31"/>
+    <row r="320" spans="1:3" s="18" customFormat="1">
+      <c r="A320" s="17"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
     </row>
-    <row r="321" spans="1:3" s="32" customFormat="1">
-      <c r="A321" s="31"/>
+    <row r="321" spans="1:3" s="18" customFormat="1">
+      <c r="A321" s="17"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
     </row>
-    <row r="322" spans="1:3" s="32" customFormat="1">
-      <c r="A322" s="31"/>
+    <row r="322" spans="1:3" s="18" customFormat="1">
+      <c r="A322" s="17"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
     </row>
-    <row r="323" spans="1:3" s="32" customFormat="1">
-      <c r="A323" s="31"/>
+    <row r="323" spans="1:3" s="18" customFormat="1">
+      <c r="A323" s="17"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
     </row>
-    <row r="324" spans="1:3" s="32" customFormat="1">
-      <c r="A324" s="31"/>
+    <row r="324" spans="1:3" s="18" customFormat="1">
+      <c r="A324" s="17"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
     </row>
-    <row r="325" spans="1:3" s="32" customFormat="1">
-      <c r="A325" s="31"/>
+    <row r="325" spans="1:3" s="18" customFormat="1">
+      <c r="A325" s="17"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
     </row>
-    <row r="326" spans="1:3" s="32" customFormat="1">
-      <c r="A326" s="31"/>
+    <row r="326" spans="1:3" s="18" customFormat="1">
+      <c r="A326" s="17"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
     </row>
-    <row r="327" spans="1:3" s="32" customFormat="1">
-      <c r="A327" s="31"/>
+    <row r="327" spans="1:3" s="18" customFormat="1">
+      <c r="A327" s="17"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
     </row>
-    <row r="328" spans="1:3" s="32" customFormat="1">
-      <c r="A328" s="31"/>
+    <row r="328" spans="1:3" s="18" customFormat="1">
+      <c r="A328" s="17"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
     </row>
-    <row r="329" spans="1:3" s="32" customFormat="1">
-      <c r="A329" s="31"/>
+    <row r="329" spans="1:3" s="18" customFormat="1">
+      <c r="A329" s="17"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="1:3" s="32" customFormat="1">
-      <c r="A330" s="31"/>
+    <row r="330" spans="1:3" s="18" customFormat="1">
+      <c r="A330" s="17"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="1:3" s="32" customFormat="1">
-      <c r="A331" s="31"/>
+    <row r="331" spans="1:3" s="18" customFormat="1">
+      <c r="A331" s="17"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="1:3" s="32" customFormat="1">
-      <c r="A332" s="31"/>
+    <row r="332" spans="1:3" s="18" customFormat="1">
+      <c r="A332" s="17"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="1:3" s="32" customFormat="1">
-      <c r="A333" s="31"/>
+    <row r="333" spans="1:3" s="18" customFormat="1">
+      <c r="A333" s="17"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="1:3" s="32" customFormat="1">
-      <c r="A334" s="31"/>
+    <row r="334" spans="1:3" s="18" customFormat="1">
+      <c r="A334" s="17"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" s="32" customFormat="1">
-      <c r="A335" s="31"/>
+    <row r="335" spans="1:3" s="18" customFormat="1">
+      <c r="A335" s="17"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" s="32" customFormat="1">
-      <c r="A336" s="31"/>
+    <row r="336" spans="1:3" s="18" customFormat="1">
+      <c r="A336" s="17"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
     </row>
-    <row r="337" spans="1:3" s="32" customFormat="1">
-      <c r="A337" s="31"/>
+    <row r="337" spans="1:3" s="18" customFormat="1">
+      <c r="A337" s="17"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
     </row>
-    <row r="338" spans="1:3" s="32" customFormat="1">
-      <c r="A338" s="31"/>
+    <row r="338" spans="1:3" s="18" customFormat="1">
+      <c r="A338" s="17"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
     </row>
-    <row r="339" spans="1:3" s="32" customFormat="1">
-      <c r="A339" s="31"/>
+    <row r="339" spans="1:3" s="18" customFormat="1">
+      <c r="A339" s="17"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
     </row>
-    <row r="340" spans="1:3" s="32" customFormat="1">
-      <c r="A340" s="31"/>
+    <row r="340" spans="1:3" s="18" customFormat="1">
+      <c r="A340" s="17"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
     </row>
-    <row r="341" spans="1:3" s="32" customFormat="1">
-      <c r="A341" s="31"/>
+    <row r="341" spans="1:3" s="18" customFormat="1">
+      <c r="A341" s="17"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="1:3" s="32" customFormat="1">
-      <c r="A342" s="31"/>
+    <row r="342" spans="1:3" s="18" customFormat="1">
+      <c r="A342" s="17"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="1:3" s="32" customFormat="1">
-      <c r="A343" s="31"/>
+    <row r="343" spans="1:3" s="18" customFormat="1">
+      <c r="A343" s="17"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="1:3" s="32" customFormat="1">
-      <c r="A344" s="31"/>
+    <row r="344" spans="1:3" s="18" customFormat="1">
+      <c r="A344" s="17"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="1:3" s="32" customFormat="1">
-      <c r="A345" s="31"/>
+    <row r="345" spans="1:3" s="18" customFormat="1">
+      <c r="A345" s="17"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="1:3" s="32" customFormat="1">
-      <c r="A346" s="31"/>
+    <row r="346" spans="1:3" s="18" customFormat="1">
+      <c r="A346" s="17"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="1:3" s="32" customFormat="1">
-      <c r="A347" s="31"/>
+    <row r="347" spans="1:3" s="18" customFormat="1">
+      <c r="A347" s="17"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="1:3" s="32" customFormat="1">
-      <c r="A348" s="31"/>
+    <row r="348" spans="1:3" s="18" customFormat="1">
+      <c r="A348" s="17"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="1:3" s="32" customFormat="1">
-      <c r="A349" s="31"/>
+    <row r="349" spans="1:3" s="18" customFormat="1">
+      <c r="A349" s="17"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="1:3" s="32" customFormat="1">
-      <c r="A350" s="31"/>
+    <row r="350" spans="1:3" s="18" customFormat="1">
+      <c r="A350" s="17"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="1:3" s="32" customFormat="1">
-      <c r="A351" s="31"/>
+    <row r="351" spans="1:3" s="18" customFormat="1">
+      <c r="A351" s="17"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="1:3" s="32" customFormat="1">
-      <c r="A352" s="31"/>
+    <row r="352" spans="1:3" s="18" customFormat="1">
+      <c r="A352" s="17"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
     </row>
-    <row r="353" spans="1:3" s="32" customFormat="1">
-      <c r="A353" s="31"/>
+    <row r="353" spans="1:3" s="18" customFormat="1">
+      <c r="A353" s="17"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
     </row>
-    <row r="354" spans="1:3" s="32" customFormat="1">
-      <c r="A354" s="31"/>
+    <row r="354" spans="1:3" s="18" customFormat="1">
+      <c r="A354" s="17"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" s="32" customFormat="1">
-      <c r="A355" s="31"/>
+    <row r="355" spans="1:3" s="18" customFormat="1">
+      <c r="A355" s="17"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" s="32" customFormat="1">
-      <c r="A356" s="31"/>
+    <row r="356" spans="1:3" s="18" customFormat="1">
+      <c r="A356" s="17"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
     </row>
-    <row r="357" spans="1:3" s="32" customFormat="1">
-      <c r="A357" s="31"/>
+    <row r="357" spans="1:3" s="18" customFormat="1">
+      <c r="A357" s="17"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
     </row>
-    <row r="358" spans="1:3" s="32" customFormat="1">
-      <c r="A358" s="31"/>
+    <row r="358" spans="1:3" s="18" customFormat="1">
+      <c r="A358" s="17"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
     </row>
-    <row r="359" spans="1:3" s="32" customFormat="1">
-      <c r="A359" s="31"/>
+    <row r="359" spans="1:3" s="18" customFormat="1">
+      <c r="A359" s="17"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
     </row>
-    <row r="360" spans="1:3" s="32" customFormat="1">
-      <c r="A360" s="31"/>
+    <row r="360" spans="1:3" s="18" customFormat="1">
+      <c r="A360" s="17"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
     </row>
-    <row r="361" spans="1:3" s="32" customFormat="1">
-      <c r="A361" s="31"/>
+    <row r="361" spans="1:3" s="18" customFormat="1">
+      <c r="A361" s="17"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
     </row>
-    <row r="362" spans="1:3" s="32" customFormat="1">
-      <c r="A362" s="31"/>
+    <row r="362" spans="1:3" s="18" customFormat="1">
+      <c r="A362" s="17"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
     </row>
-    <row r="363" spans="1:3" s="32" customFormat="1">
-      <c r="A363" s="31"/>
+    <row r="363" spans="1:3" s="18" customFormat="1">
+      <c r="A363" s="17"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
     </row>
-    <row r="364" spans="1:3" s="32" customFormat="1">
-      <c r="A364" s="31"/>
+    <row r="364" spans="1:3" s="18" customFormat="1">
+      <c r="A364" s="17"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
     </row>
-    <row r="365" spans="1:3" s="32" customFormat="1">
-      <c r="A365" s="31"/>
+    <row r="365" spans="1:3" s="18" customFormat="1">
+      <c r="A365" s="17"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
     </row>
-    <row r="366" spans="1:3" s="32" customFormat="1">
-      <c r="A366" s="31"/>
+    <row r="366" spans="1:3" s="18" customFormat="1">
+      <c r="A366" s="17"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
     </row>
-    <row r="367" spans="1:3" s="32" customFormat="1">
-      <c r="A367" s="31"/>
+    <row r="367" spans="1:3" s="18" customFormat="1">
+      <c r="A367" s="17"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
     </row>
-    <row r="368" spans="1:3" s="32" customFormat="1">
-      <c r="A368" s="31"/>
+    <row r="368" spans="1:3" s="18" customFormat="1">
+      <c r="A368" s="17"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
     </row>
-    <row r="369" spans="1:3" s="32" customFormat="1">
-      <c r="A369" s="31"/>
+    <row r="369" spans="1:3" s="18" customFormat="1">
+      <c r="A369" s="17"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
     </row>
-    <row r="370" spans="1:3" s="32" customFormat="1">
-      <c r="A370" s="31"/>
+    <row r="370" spans="1:3" s="18" customFormat="1">
+      <c r="A370" s="17"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="1:3" s="32" customFormat="1">
-      <c r="A371" s="31"/>
+    <row r="371" spans="1:3" s="18" customFormat="1">
+      <c r="A371" s="17"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="1:3" s="32" customFormat="1">
-      <c r="A372" s="31"/>
+    <row r="372" spans="1:3" s="18" customFormat="1">
+      <c r="A372" s="17"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
     </row>
-    <row r="373" spans="1:3" s="32" customFormat="1">
-      <c r="A373" s="31"/>
+    <row r="373" spans="1:3" s="18" customFormat="1">
+      <c r="A373" s="17"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
     </row>
-    <row r="374" spans="1:3" s="32" customFormat="1">
-      <c r="A374" s="31"/>
+    <row r="374" spans="1:3" s="18" customFormat="1">
+      <c r="A374" s="17"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
     </row>
-    <row r="375" spans="1:3" s="32" customFormat="1">
-      <c r="A375" s="31"/>
+    <row r="375" spans="1:3" s="18" customFormat="1">
+      <c r="A375" s="17"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
     </row>
-    <row r="376" spans="1:3" s="32" customFormat="1">
-      <c r="A376" s="31"/>
+    <row r="376" spans="1:3" s="18" customFormat="1">
+      <c r="A376" s="17"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
     </row>
-    <row r="377" spans="1:3" s="32" customFormat="1">
-      <c r="A377" s="31"/>
+    <row r="377" spans="1:3" s="18" customFormat="1">
+      <c r="A377" s="17"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
     </row>
-    <row r="378" spans="1:3" s="32" customFormat="1">
-      <c r="A378" s="31"/>
+    <row r="378" spans="1:3" s="18" customFormat="1">
+      <c r="A378" s="17"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
     </row>
-    <row r="379" spans="1:3" s="32" customFormat="1">
-      <c r="A379" s="31"/>
+    <row r="379" spans="1:3" s="18" customFormat="1">
+      <c r="A379" s="17"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
     </row>
-    <row r="380" spans="1:3" s="32" customFormat="1">
-      <c r="A380" s="31"/>
+    <row r="380" spans="1:3" s="18" customFormat="1">
+      <c r="A380" s="17"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
     </row>
-    <row r="381" spans="1:3" s="32" customFormat="1">
-      <c r="A381" s="31"/>
+    <row r="381" spans="1:3" s="18" customFormat="1">
+      <c r="A381" s="17"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
     </row>
-    <row r="382" spans="1:3" s="32" customFormat="1">
-      <c r="A382" s="31"/>
+    <row r="382" spans="1:3" s="18" customFormat="1">
+      <c r="A382" s="17"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
     </row>
-    <row r="383" spans="1:3" s="32" customFormat="1">
-      <c r="A383" s="31"/>
+    <row r="383" spans="1:3" s="18" customFormat="1">
+      <c r="A383" s="17"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
     </row>
-    <row r="384" spans="1:3" s="32" customFormat="1">
-      <c r="A384" s="31"/>
+    <row r="384" spans="1:3" s="18" customFormat="1">
+      <c r="A384" s="17"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
     </row>
-    <row r="385" spans="1:3" s="32" customFormat="1">
-      <c r="A385" s="31"/>
+    <row r="385" spans="1:3" s="18" customFormat="1">
+      <c r="A385" s="17"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
     </row>
-    <row r="386" spans="1:3" s="32" customFormat="1">
-      <c r="A386" s="31"/>
+    <row r="386" spans="1:3" s="18" customFormat="1">
+      <c r="A386" s="17"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
     </row>
-    <row r="387" spans="1:3" s="32" customFormat="1">
-      <c r="A387" s="31"/>
+    <row r="387" spans="1:3" s="18" customFormat="1">
+      <c r="A387" s="17"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
     </row>
-    <row r="388" spans="1:3" s="32" customFormat="1">
-      <c r="A388" s="31"/>
+    <row r="388" spans="1:3" s="18" customFormat="1">
+      <c r="A388" s="17"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
     </row>
-    <row r="389" spans="1:3" s="32" customFormat="1">
-      <c r="A389" s="31"/>
+    <row r="389" spans="1:3" s="18" customFormat="1">
+      <c r="A389" s="17"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
     </row>
-    <row r="390" spans="1:3" s="32" customFormat="1">
-      <c r="A390" s="31"/>
+    <row r="390" spans="1:3" s="18" customFormat="1">
+      <c r="A390" s="17"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
     </row>
-    <row r="391" spans="1:3" s="32" customFormat="1">
-      <c r="A391" s="31"/>
+    <row r="391" spans="1:3" s="18" customFormat="1">
+      <c r="A391" s="17"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
     </row>
+    <row r="392" spans="1:3" s="18" customFormat="1">
+      <c r="A392" s="17"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Маркированные и подакцизные товары.xlsx
+++ b/Маркированные и подакцизные товары.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OBSVLT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OBSVLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D156C343-E363-4AEC-B2E6-57491ACC876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE16A0D-9D26-4293-8BF2-D56923474B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -716,23 +716,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1048,10 +1045,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="142.5" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1098,10 +1095,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1110,10 +1107,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1122,10 +1119,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1160,10 +1157,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1172,10 +1169,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1260,10 +1257,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1334,10 +1331,10 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1371,17 +1368,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="D22:D23"/>
@@ -1389,6 +1375,17 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1397,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F08E9C-1A2C-4B88-A0A5-82884D7265B8}">
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1422,7 +1419,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1433,7 +1430,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
@@ -1442,7 +1439,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>57</v>
       </c>
@@ -1451,135 +1448,135 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="29"/>
       <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="33"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="28" t="s">
+      <c r="C17" s="32"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="28"/>
       <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="32"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A20" s="30"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="29"/>
       <c r="B20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="33"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="28" t="s">
+      <c r="C20" s="32"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1589,29 +1586,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="28"/>
       <c r="B22" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" ht="30">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="28"/>
       <c r="B23" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A24" s="29"/>
       <c r="B24" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1621,15 +1618,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A26" s="29"/>
       <c r="B26" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A27" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1639,8 +1636,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="29"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="28"/>
       <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
@@ -1648,8 +1645,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A29" s="28"/>
       <c r="B29" s="10" t="s">
         <v>84</v>
       </c>
@@ -1657,8 +1654,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="28"/>
       <c r="B30" s="10" t="s">
         <v>85</v>
       </c>
@@ -1666,8 +1663,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A31" s="29"/>
       <c r="B31" s="12" t="s">
         <v>86</v>
       </c>
@@ -1675,8 +1672,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -1685,9 +1682,10 @@
       <c r="C32" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="15" t="s">
         <v>80</v>
       </c>
@@ -1696,7 +1694,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="16"/>
       <c r="C34" s="13" t="s">
         <v>81</v>
@@ -1706,8 +1704,8 @@
       <c r="A35" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" s="18" customFormat="1">
       <c r="A36" s="17"/>

--- a/Маркированные и подакцизные товары.xlsx
+++ b/Маркированные и подакцизные товары.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OBSVLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE16A0D-9D26-4293-8BF2-D56923474B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1176F49-FF34-485A-8BA5-6C280B7BC86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
   <si>
     <t>Товар</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Обувь</t>
+  </si>
+  <si>
+    <t>Молочная продукция</t>
   </si>
 </sst>
 </file>
@@ -716,20 +719,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1045,10 +1048,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="142.5" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1095,10 +1098,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1107,10 +1110,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1119,10 +1122,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1157,10 +1160,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1169,10 +1172,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1257,10 +1260,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1331,10 +1334,10 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1368,6 +1371,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="D22:D23"/>
@@ -1375,17 +1389,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1394,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F08E9C-1A2C-4B88-A0A5-82884D7265B8}">
-  <dimension ref="A1:E392"/>
+  <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,306 +1471,308 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="10" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="27" t="s">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C12" s="30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="28"/>
       <c r="B13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="28"/>
       <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="32"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="27" t="s">
+      <c r="C16" s="32"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="12" t="s">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="32"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="27" t="s">
+      <c r="C18" s="32"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="28"/>
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="27" t="s">
+      <c r="C21" s="32"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="28"/>
-      <c r="B22" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="30">
+    <row r="23" spans="1:3">
       <c r="A23" s="28"/>
       <c r="B23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="28"/>
+      <c r="B24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="27" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="12" t="s">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="28"/>
-      <c r="B28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="32.25" customHeight="1">
+    <row r="29" spans="1:3">
       <c r="A29" s="28"/>
       <c r="B29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32.25" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" s="28"/>
+      <c r="B31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="12" t="s">
+    <row r="32" spans="1:3" ht="45.75" thickBot="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="27" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="15" t="s">
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="28"/>
+      <c r="B34" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="13" t="s">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" customHeight="1">
-      <c r="A35" s="26" t="s">
+    <row r="36" spans="1:5" ht="60" customHeight="1">
+      <c r="A36" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:3" s="18" customFormat="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" s="18" customFormat="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1">
       <c r="A37" s="17"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" s="18" customFormat="1">
+    <row r="38" spans="1:5" s="18" customFormat="1">
       <c r="A38" s="17"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" s="18" customFormat="1">
+    <row r="39" spans="1:5" s="18" customFormat="1">
       <c r="A39" s="17"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" s="18" customFormat="1">
+    <row r="40" spans="1:5" s="18" customFormat="1">
       <c r="A40" s="17"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" s="18" customFormat="1">
+    <row r="41" spans="1:5" s="18" customFormat="1">
       <c r="A41" s="17"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" s="18" customFormat="1">
+    <row r="42" spans="1:5" s="18" customFormat="1">
       <c r="A42" s="17"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" s="18" customFormat="1">
+    <row r="43" spans="1:5" s="18" customFormat="1">
       <c r="A43" s="17"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" s="18" customFormat="1">
+    <row r="44" spans="1:5" s="18" customFormat="1">
       <c r="A44" s="17"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" s="18" customFormat="1">
+    <row r="45" spans="1:5" s="18" customFormat="1">
       <c r="A45" s="17"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" s="18" customFormat="1">
+    <row r="46" spans="1:5" s="18" customFormat="1">
       <c r="A46" s="17"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" s="18" customFormat="1">
+    <row r="47" spans="1:5" s="18" customFormat="1">
       <c r="A47" s="17"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" s="18" customFormat="1">
+    <row r="48" spans="1:5" s="18" customFormat="1">
       <c r="A48" s="17"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3492,22 +3497,27 @@
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
     </row>
+    <row r="393" spans="1:3" s="18" customFormat="1">
+      <c r="A393" s="17"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
